--- a/Experiments/EXP1/record_bin/CHECKSCORE_HANDSUMMARY.xlsx
+++ b/Experiments/EXP1/record_bin/CHECKSCORE_HANDSUMMARY.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16065\Desktop\calibration_exps\CalibrationOfficial\Experiments\EXP1\record_bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAI\Desktop\Calibration\CalibrationOfficial\Experiments\EXP1\record_bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB8385C-8839-4516-8AE3-F68D3BF65D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2737DFFB-0EF1-4F88-9E88-6C7D6141118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="24900" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="576" yWindow="1116" windowWidth="19392" windowHeight="10968" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>idxes</t>
   </si>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>vanillaMSQR_CheckScore</t>
+  </si>
+  <si>
+    <t>boston_std</t>
+  </si>
+  <si>
+    <t>concrete_std</t>
+  </si>
+  <si>
+    <t>energy_std</t>
+  </si>
+  <si>
+    <t>kin8nm_std</t>
+  </si>
+  <si>
+    <t>naval_std</t>
+  </si>
+  <si>
+    <t>power_std</t>
+  </si>
+  <si>
+    <t>wine_std</t>
+  </si>
+  <si>
+    <t>yacht_std</t>
+  </si>
+  <si>
+    <t>HNN_MMD_CheckScore_muSigma</t>
+  </si>
+  <si>
+    <t>vanillaKernel_CovSelect_CheckScore</t>
+  </si>
+  <si>
+    <t>RFKernel_CheckScore</t>
+  </si>
+  <si>
+    <t>vanillaKernel_RandomProj_CheckScore</t>
   </si>
 </sst>
 </file>
@@ -98,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,317 +448,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.95615702867507901</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.18941026926040599</v>
+      </c>
       <c r="D2" s="1">
         <v>2.2416349649429299</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>0.56167685985565097</v>
+      </c>
       <c r="F2" s="1">
         <v>0.60830415785312597</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0.137614235281944</v>
+      </c>
       <c r="H2" s="1">
         <v>3.0798627063632001E-2</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>1.41488946974277E-3</v>
+      </c>
       <c r="J2" s="1">
         <v>8.6020928574725899E-4</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>2.4360482348129099E-4</v>
+      </c>
       <c r="L2" s="1">
         <v>1.2950007319450301</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1">
+        <v>9.3332588672637898E-2</v>
+      </c>
       <c r="N2" s="1">
         <v>0.20272569358348799</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1">
+        <v>1.15054100751876E-2</v>
+      </c>
       <c r="P2" s="1">
         <v>1.4277528524398799</v>
       </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1">
+        <v>0.62123286724090498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1.9245914220809901</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>0.161559462547302</v>
+      </c>
       <c r="D3" s="1">
         <v>3.57625389099121</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0.16443681716918901</v>
+      </c>
       <c r="F3" s="1">
         <v>1.35794514417648</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0.28714281320571899</v>
+      </c>
       <c r="H3" s="1">
         <v>4.5157529413700097E-2</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>1.6295835375785799E-3</v>
+      </c>
       <c r="J3" s="1">
         <v>1.7990059568546699E-3</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>5.5505713680758996E-4</v>
+      </c>
       <c r="L3" s="1">
         <v>23.538761138916001</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>3.3345909118652299</v>
+      </c>
       <c r="N3" s="1">
         <v>0.204593576490879</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1">
+        <v>1.3206951320171301E-2</v>
+      </c>
       <c r="P3" s="1">
         <v>1.9282582998275699</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1">
+        <v>0.64058029651641801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>1.03342640399932</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>0.32350623607635498</v>
+      </c>
       <c r="D4" s="1">
         <v>1.92133176326751</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>0.25672614574432301</v>
+      </c>
       <c r="F4" s="1">
         <v>0.64115038514137201</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>8.9961677789688096E-2</v>
+      </c>
       <c r="H4" s="1">
         <v>2.7229089289903599E-2</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
+        <v>1.9383840262889799E-3</v>
+      </c>
+      <c r="J4" s="2">
         <v>6.3985789893195001E-4</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>1.89931131899356E-4</v>
+      </c>
       <c r="L4" s="1">
         <v>1.3012439012527399</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <v>9.9838733673095703E-2</v>
+      </c>
       <c r="N4" s="1">
         <v>0.202993594110012</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1">
+        <v>9.3391463160514797E-3</v>
+      </c>
       <c r="P4" s="1">
         <v>1.0939008593559201</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1">
+        <v>0.35700803995132402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>1.09887239336967</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.38412144780158902</v>
+      </c>
       <c r="D5" s="1">
         <v>2.2894033193588199</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.55423295497894198</v>
+      </c>
       <c r="F5" s="1">
         <v>0.79309713840484597</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>9.7168862819671603E-2</v>
+      </c>
       <c r="H5" s="1">
         <v>3.0354231595993E-2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>1.6732476651668501E-3</v>
+      </c>
       <c r="J5" s="1">
         <v>2.1231378195807299E-3</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>5.8391003403812603E-4</v>
+      </c>
       <c r="L5" s="1">
         <v>1.5344589948654099</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>0.22282326221466001</v>
+      </c>
       <c r="N5" s="1">
         <v>0.209325700998306</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1">
+        <v>1.42075270414352E-2</v>
+      </c>
       <c r="P5" s="1">
         <v>0.48676812648773099</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1">
+        <v>0.17463642358779899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95287156105041504</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.19707942008972101</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.2815396785736</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.55454587936401301</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.60178263485431605</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.13115088641643499</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.0784725211560698E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.31742376834154E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.9249191912822404E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.98212660709396E-4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.27709740400314</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.105280220508575</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.20067210495471899</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.2143015861511199E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.52534219622612</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.63326671719550998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1.1258567869663201</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C7" s="1">
+        <v>0.33713838458061202</v>
+      </c>
+      <c r="D7" s="1">
         <v>1.7321517467498699</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E7" s="1">
+        <v>0.247161149978637</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.24652200937271099</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G7" s="1">
+        <v>2.44284272193908E-2</v>
+      </c>
+      <c r="H7" s="2">
         <v>2.2729218006133999E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I7" s="1">
+        <v>1.12791359424591E-3</v>
+      </c>
+      <c r="J7" s="1">
         <v>2.5694839423522301E-3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K7" s="1">
+        <v>5.66596048884093E-4</v>
+      </c>
+      <c r="L7" s="1">
         <v>1.2587465047836299</v>
       </c>
-      <c r="N6" s="1">
+      <c r="M7" s="1">
+        <v>9.2298984527587804E-3</v>
+      </c>
+      <c r="N7" s="1">
         <v>0.201325803995132</v>
       </c>
-      <c r="P6" s="1">
+      <c r="O7" s="1">
+        <v>1.28871947526931E-2</v>
+      </c>
+      <c r="P7" s="1">
         <v>0.54212112724781003</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.0727161467075299</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.8651960492134001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.68547809123992898</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3.1526880338787998E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.97525159455835E-3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.2309797406196501</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.207582086324691</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.44209714233875202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1">
+        <v>0.16389738023281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
-        <v>0.95287156105041504</v>
+        <v>1.31910333037376</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.44657233357429499</v>
       </c>
       <c r="D8" s="1">
-        <v>2.2815396785736</v>
+        <v>3.9264875650405799</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.46150958538055</v>
       </c>
       <c r="F8" s="1">
-        <v>0.60178263485431605</v>
+        <v>0.71148091554641701</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.16237062215805001</v>
       </c>
       <c r="H8" s="1">
-        <v>3.0784725211560698E-2</v>
+        <v>3.4744659438729203E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.1230468302965099E-3</v>
       </c>
       <c r="J8" s="1">
-        <v>7.9249191912822404E-4</v>
+        <v>5.9526909608393899E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.8389414809644201E-4</v>
       </c>
       <c r="L8" s="1">
-        <v>1.27709740400314</v>
+        <v>1.72591143846511</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.194904029369354</v>
       </c>
       <c r="N8" s="1">
-        <v>0.20067210495471899</v>
+        <v>0.239256896078586</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.1798424422740902E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>1.52534219622612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1.09377965331077</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.33013513684272699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0972680747509</v>
+        <v>1.0972680749999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.24560847899999999</v>
       </c>
       <c r="D9" s="1">
-        <v>1.9792042374610901</v>
+        <v>1.979204237</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.19684833299999999</v>
       </c>
       <c r="F9" s="1">
-        <v>0.60043628513812997</v>
+        <v>0.60043628500000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.175447151</v>
       </c>
       <c r="H9" s="1">
-        <v>2.8986530378460801E-2</v>
+        <v>2.898653E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.4913719999999999E-3</v>
       </c>
       <c r="J9" s="1">
-        <v>2.1316778147593102E-3</v>
+        <v>2.1316780000000001E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6.9711700000000003E-4</v>
       </c>
       <c r="L9" s="1">
-        <v>1.23458749055862</v>
+        <v>1.2345874910000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.5772989E-2</v>
       </c>
       <c r="N9" s="1">
-        <v>0.20297048985958099</v>
+        <v>0.20297049</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.5106335E-2</v>
       </c>
       <c r="P9" s="1">
-        <v>0.32091587036848002</v>
+        <v>0.32091586999999999</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>8.6647160000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.072883517</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.244260281</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0058377979999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.39969885300000002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.68553930500000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.161620975</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.1527457000000002E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.1548930000000002E-3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.9853079999999999E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.8870499999999996E-4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.2309797410000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4.8387587000000003E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.20758618400000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.1332169E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.40193860199999998</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.18163062599999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.072716147</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.24423942000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.8651960489999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.36768978800000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.68547809100000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16157937</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.152688E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.1548890000000001E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.9752519999999998E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.7975200000000005E-4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1.2309797410000001</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4.8387587000000003E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.207582086</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.1333048E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.442097142</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.199945018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.17684868</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.44981417099999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.4095208050000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.202680528</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.175965868</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.3376998999999997E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.3739016999999998E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.0701790000000001E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.78373E-4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.00085E-4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.99568778300000005</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.2233298000000001E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.19393243600000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.1497699E-2</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.18344143800000001</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2.6758767999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0728693600000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.24424880700000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.582409561</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.71515494599999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.685689628</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.16171038200000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.1528334999999998E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.1554679999999998E-3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.9911989999999999E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6.9469699999999998E-4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1.25430423</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6.5607368999999999E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.20759133199999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.1326589E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.53704364599999999</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.18574748899999999</v>
       </c>
     </row>
   </sheetData>
